--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_36_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_36_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_3</t>
+          <t>model_36_9_16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9602138184726745</v>
+        <v>0.9879132143577001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6827021651028566</v>
+        <v>0.7080842802878875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9817439575728011</v>
+        <v>-4.438307404512354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3225557403035069</v>
+        <v>0.9319046440071563</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9284321693757296</v>
+        <v>0.8382395271391534</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2660503790717467</v>
+        <v>0.08082439124458991</v>
       </c>
       <c r="H2" t="n">
-        <v>2.121772082979386</v>
+        <v>1.95204176186319</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1816663275008091</v>
+        <v>0.3488095712802983</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6505764067714019</v>
+        <v>0.1563430297311442</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4161214481678828</v>
+        <v>0.2525760349651511</v>
       </c>
       <c r="L2" t="n">
-        <v>2.914063201980268</v>
+        <v>0.5514870301948985</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5158007164319828</v>
+        <v>0.2842963088831614</v>
       </c>
       <c r="N2" t="n">
-        <v>1.008760260152806</v>
+        <v>1.00592005827378</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5377594207851712</v>
+        <v>0.2963993913268077</v>
       </c>
       <c r="P2" t="n">
-        <v>268.6481391862537</v>
+        <v>151.0309529743405</v>
       </c>
       <c r="Q2" t="n">
-        <v>430.7586238937243</v>
+        <v>240.0088881897191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_2</t>
+          <t>model_36_9_24</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9586427887580217</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.682517524924626</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9848012513758043</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4247815536795593</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9394905590059813</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2765558620075569</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H3" t="n">
-        <v>2.123006772701404</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1512431216226781</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5524049315635793</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3518239409330537</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L3" t="n">
-        <v>2.719193423460413</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5258857879878073</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009106174952362</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5482738347161034</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P3" t="n">
-        <v>268.5706848916971</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q3" t="n">
-        <v>430.6811695991677</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_4</t>
+          <t>model_36_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9608583459549865</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6821827510834957</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9781463348655762</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2239634017829542</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.917211525752201</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2617404208297494</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H4" t="n">
-        <v>2.125245406918535</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2174663596031302</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7452585129547616</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4813623592486079</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L4" t="n">
-        <v>3.087919904814532</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5116057279094415</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N4" t="n">
-        <v>1.008618345844774</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O4" t="n">
-        <v>0.533385842916402</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P4" t="n">
-        <v>268.6808040530803</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q4" t="n">
-        <v>430.791288760551</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_1</t>
+          <t>model_36_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9558386327744132</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6813692135060099</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9870492748063444</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5290808490437717</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9500276253040043</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2953072659818979</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H5" t="n">
-        <v>2.130685536445178</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I5" t="n">
-        <v>0.128872985138247</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4522422099291255</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2905575975336863</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L5" t="n">
-        <v>2.500693530451055</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5434218122065932</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00972360379279</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5665564037904576</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P5" t="n">
-        <v>268.4394777702207</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q5" t="n">
-        <v>430.5499624776913</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_5</t>
+          <t>model_36_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9608160286868763</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6811599384090381</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9742145314456628</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1300158442804966</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9060884492774955</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2620233965964556</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H6" t="n">
-        <v>2.132084959982252</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2565918322020891</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8354800529708825</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5460359793704241</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L6" t="n">
-        <v>3.243081500564025</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5118822096893538</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N6" t="n">
-        <v>1.008627663408394</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5336740950980814</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P6" t="n">
-        <v>268.6786429584432</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q6" t="n">
-        <v>430.7891276659138</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_6</t>
+          <t>model_36_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9602738517105406</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6797887150067817</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9701055419188005</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04132651638791851</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8952480178745442</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2656489365337082</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H7" t="n">
-        <v>2.141254337187043</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2974804881121034</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9206519079736459</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6090661980428748</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L7" t="n">
-        <v>3.381597210758391</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5154114245277341</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N7" t="n">
-        <v>1.008747041825202</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5373535559186134</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P7" t="n">
-        <v>268.6511592587084</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q7" t="n">
-        <v>430.7616439661791</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_0</t>
+          <t>model_36_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.95140945999976</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6789214834381907</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9881369913508444</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6331557200412522</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9595532993913501</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3249251647204688</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H8" t="n">
-        <v>2.147053518679445</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1180490910336418</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J8" t="n">
-        <v>0.352295011854006</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2351718570211407</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L8" t="n">
-        <v>2.255542884289808</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5700220738887827</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010698834495466</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5942890936825904</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P8" t="n">
-        <v>268.2483207711308</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q8" t="n">
-        <v>430.3588054786015</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_7</t>
+          <t>model_36_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9593774168147527</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6781882535163178</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9659386253441875</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04177588483350969</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8848193974929636</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2716434008095444</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H9" t="n">
-        <v>2.151956630543223</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3389455774999539</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J9" t="n">
-        <v>1.000458417227904</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6697019973639289</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L9" t="n">
-        <v>3.505274346514168</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5211942064236175</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N9" t="n">
-        <v>1.008944421985742</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5433825228118133</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P9" t="n">
-        <v>268.6065301985373</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q9" t="n">
-        <v>430.717014906008</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_8</t>
+          <t>model_36_9_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9582396054073763</v>
+        <v>0.9879132268043063</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6764497271412677</v>
+        <v>0.7080842505278047</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9618028058036591</v>
+        <v>-4.438302525279806</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1191703797200467</v>
+        <v>0.9319048247117607</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8748887657319587</v>
+        <v>0.8382396276923576</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2792519509298111</v>
+        <v>0.08082430801407707</v>
       </c>
       <c r="H10" t="n">
-        <v>2.163582164418361</v>
+        <v>1.952041960869002</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3801012195362861</v>
+        <v>0.348809258329432</v>
       </c>
       <c r="J10" t="n">
-        <v>1.074783399197238</v>
+        <v>0.1563426148437422</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7274423093667621</v>
+        <v>0.2525758779593686</v>
       </c>
       <c r="L10" t="n">
-        <v>3.615714678703077</v>
+        <v>0.5514854089112103</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5284429495506692</v>
+        <v>0.2842961625032548</v>
       </c>
       <c r="N10" t="n">
-        <v>1.009194949268101</v>
+        <v>1.005920052177483</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5509398599407506</v>
+        <v>0.2963992387152054</v>
       </c>
       <c r="P10" t="n">
-        <v>268.5512817094748</v>
+        <v>151.030955033881</v>
       </c>
       <c r="Q10" t="n">
-        <v>430.6617664169455</v>
+        <v>240.0088902492597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_9</t>
+          <t>model_36_9_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.956946992325415</v>
+        <v>0.9879133357588595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6746423426084682</v>
+        <v>0.7080842481735772</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9577635055820749</v>
+        <v>-4.438330932982329</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.190899157594703</v>
+        <v>0.9319073532371354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8655086111498443</v>
+        <v>0.8382408275844869</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2878956605608219</v>
+        <v>0.0808235794344781</v>
       </c>
       <c r="H11" t="n">
-        <v>2.175668153111432</v>
+        <v>1.952041976611731</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4202963954543227</v>
+        <v>0.3488110803813687</v>
       </c>
       <c r="J11" t="n">
-        <v>1.143667369950352</v>
+        <v>0.1563368094945807</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7819819464453286</v>
+        <v>0.2525740044238192</v>
       </c>
       <c r="L11" t="n">
-        <v>3.714360577756833</v>
+        <v>0.5514847872384341</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5365590932607721</v>
+        <v>0.2842948811260556</v>
       </c>
       <c r="N11" t="n">
-        <v>1.009479561322844</v>
+        <v>1.005919998811987</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5594015246913261</v>
+        <v>0.2963979027871261</v>
       </c>
       <c r="P11" t="n">
-        <v>268.4903143084167</v>
+        <v>151.030973062687</v>
       </c>
       <c r="Q11" t="n">
-        <v>430.6007990158873</v>
+        <v>240.0089082780656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_10</t>
+          <t>model_36_9_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9555659146041652</v>
+        <v>0.9879132249766593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6728180804865818</v>
+        <v>0.7080842306218599</v>
       </c>
       <c r="D12" t="n">
-        <v>0.953867837775926</v>
+        <v>-4.438315857180184</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.257103550126583</v>
+        <v>0.9319050508462032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.856707599235853</v>
+        <v>0.8382395013539281</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2971309336420974</v>
+        <v>0.08082432023556045</v>
       </c>
       <c r="H12" t="n">
-        <v>2.187867002320441</v>
+        <v>1.952042093980146</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4590622816713602</v>
+        <v>0.3488101134290263</v>
       </c>
       <c r="J12" t="n">
-        <v>1.207246055856068</v>
+        <v>0.1563420956520387</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8331542369988848</v>
+        <v>0.2525760752267172</v>
       </c>
       <c r="L12" t="n">
-        <v>3.802491601664138</v>
+        <v>0.5514837095377088</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5450971781637632</v>
+        <v>0.2842961839975353</v>
       </c>
       <c r="N12" t="n">
-        <v>1.009783651830276</v>
+        <v>1.005920053072657</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5683030935449098</v>
+        <v>0.296399261124542</v>
       </c>
       <c r="P12" t="n">
-        <v>268.4271647666264</v>
+        <v>151.0309547314601</v>
       </c>
       <c r="Q12" t="n">
-        <v>430.5376494740971</v>
+        <v>240.0088899468387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_11</t>
+          <t>model_36_9_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9541464987717889</v>
+        <v>0.9879132227656947</v>
       </c>
       <c r="C13" t="n">
-        <v>0.671015269602859</v>
+        <v>0.7080842293540579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9501481338456601</v>
+        <v>-4.438318379234604</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3179950547677333</v>
+        <v>0.931905171497538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8484959111983417</v>
+        <v>0.8382396511757901</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3066225738490065</v>
+        <v>0.08082433502029125</v>
       </c>
       <c r="H13" t="n">
-        <v>2.199922407001076</v>
+        <v>1.952042102457944</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4960771470287587</v>
+        <v>0.3488102751919896</v>
       </c>
       <c r="J13" t="n">
-        <v>1.265722566248365</v>
+        <v>0.1563418186434978</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8808999837717834</v>
+        <v>0.2525758412918678</v>
       </c>
       <c r="L13" t="n">
-        <v>3.881237434893679</v>
+        <v>0.5514844021706218</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5537351116273976</v>
+        <v>0.2842962099998719</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01009618375667</v>
+        <v>1.005920054155578</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5773087617190785</v>
+        <v>0.2963992882338518</v>
       </c>
       <c r="P13" t="n">
-        <v>268.3642753777436</v>
+        <v>151.0309543656115</v>
       </c>
       <c r="Q13" t="n">
-        <v>430.4747600852143</v>
+        <v>240.0088895809902</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_12</t>
+          <t>model_36_9_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9527258591017145</v>
+        <v>0.9879132502296956</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6692616622502283</v>
+        <v>0.7080842257268609</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9466253371486818</v>
+        <v>-4.43833403831705</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3738433796821949</v>
+        <v>0.9319060637329437</v>
       </c>
       <c r="F14" t="n">
-        <v>0.840869258190118</v>
+        <v>0.8382398919431528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3161223978642385</v>
+        <v>0.08082415136839108</v>
       </c>
       <c r="H14" t="n">
-        <v>2.211648787442736</v>
+        <v>1.952042126713027</v>
       </c>
       <c r="I14" t="n">
-        <v>0.53113258366154</v>
+        <v>0.3488112795555587</v>
       </c>
       <c r="J14" t="n">
-        <v>1.319355912500838</v>
+        <v>0.1563397701222068</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9252441236845517</v>
+        <v>0.2525754653528962</v>
       </c>
       <c r="L14" t="n">
-        <v>3.951622368735062</v>
+        <v>0.5514867841613349</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5622476303767215</v>
+        <v>0.2842958870057586</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010408985151916</v>
+        <v>1.005920040703823</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5861836760149043</v>
+        <v>0.2963989514892105</v>
       </c>
       <c r="P14" t="n">
-        <v>268.3032516107533</v>
+        <v>151.0309589100871</v>
       </c>
       <c r="Q14" t="n">
-        <v>430.413736318224</v>
+        <v>240.0088941254658</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_13</t>
+          <t>model_36_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9513312161205747</v>
+        <v>0.987913420202684</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6675767022924739</v>
+        <v>0.7080841306363086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9433114736483544</v>
+        <v>-4.438351160131482</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4249392430143111</v>
+        <v>0.9319097956357715</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8338137946453911</v>
+        <v>0.8382422083661356</v>
       </c>
       <c r="G15" t="n">
-        <v>0.325448381900861</v>
+        <v>0.08082301475823453</v>
       </c>
       <c r="H15" t="n">
-        <v>2.222916122438768</v>
+        <v>1.952042762583988</v>
       </c>
       <c r="I15" t="n">
-        <v>0.564108920912298</v>
+        <v>0.3488123777378253</v>
       </c>
       <c r="J15" t="n">
-        <v>1.36842528269874</v>
+        <v>0.1563312018874683</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9662671599023333</v>
+        <v>0.2525718484437591</v>
       </c>
       <c r="L15" t="n">
-        <v>4.014549579463241</v>
+        <v>0.551481315146428</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5704808339469968</v>
+        <v>0.2842938880071721</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010716062505562</v>
+        <v>1.005919957451747</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5947673841062471</v>
+        <v>0.2963968673891156</v>
       </c>
       <c r="P15" t="n">
-        <v>268.2451028217171</v>
+        <v>151.0309870357929</v>
       </c>
       <c r="Q15" t="n">
-        <v>430.3555875291877</v>
+        <v>240.0089222511715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_14</t>
+          <t>model_36_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9499822570945091</v>
+        <v>0.9879136091029961</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6659733971824733</v>
+        <v>0.7080840074340162</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9402120625847564</v>
+        <v>-4.438402594973761</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4715808397291337</v>
+        <v>0.9319146298361322</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8273097228141824</v>
+        <v>0.8382447812101471</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3344688771195465</v>
+        <v>0.08082175158097776</v>
       </c>
       <c r="H16" t="n">
-        <v>2.233637431091883</v>
+        <v>1.952043586438284</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5949512366871748</v>
+        <v>0.3488156767358314</v>
       </c>
       <c r="J16" t="n">
-        <v>1.413217045212758</v>
+        <v>0.156320102840849</v>
       </c>
       <c r="K16" t="n">
-        <v>1.004084203758245</v>
+        <v>0.2525678311537036</v>
       </c>
       <c r="L16" t="n">
-        <v>4.0708156990935</v>
+        <v>0.5514800727810066</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5783328428505047</v>
+        <v>0.2842916663938248</v>
       </c>
       <c r="N16" t="n">
-        <v>1.011013081006713</v>
+        <v>1.005919864929145</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6029536692846764</v>
+        <v>0.2963945511970887</v>
       </c>
       <c r="P16" t="n">
-        <v>268.190422893467</v>
+        <v>151.0310182938975</v>
       </c>
       <c r="Q16" t="n">
-        <v>430.3009076009377</v>
+        <v>240.0089535092762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_15</t>
+          <t>model_36_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9486919178454968</v>
+        <v>0.9879139949107761</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6644597112499656</v>
+        <v>0.7080838177140557</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9373269511398219</v>
+        <v>-4.438510885598338</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5140904224785701</v>
+        <v>0.9319245350318638</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8213302802583979</v>
+        <v>0.8382498582314897</v>
       </c>
       <c r="G17" t="n">
-        <v>0.343097381619158</v>
+        <v>0.0808191716825763</v>
       </c>
       <c r="H17" t="n">
-        <v>2.243759455892445</v>
+        <v>1.952044855096534</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6236610516825065</v>
+        <v>0.3488226224274819</v>
       </c>
       <c r="J17" t="n">
-        <v>1.454040671957887</v>
+        <v>0.1562973610798554</v>
       </c>
       <c r="K17" t="n">
-        <v>1.038850861820197</v>
+        <v>0.2525599037911195</v>
       </c>
       <c r="L17" t="n">
-        <v>4.121155175306949</v>
+        <v>0.5514734694713012</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5857451507431863</v>
+        <v>0.2842871289428635</v>
       </c>
       <c r="N17" t="n">
-        <v>1.011297192400991</v>
+        <v>1.005919675962069</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6106815344699421</v>
+        <v>0.2963898205774462</v>
       </c>
       <c r="P17" t="n">
-        <v>268.1394819213706</v>
+        <v>151.0310821366015</v>
       </c>
       <c r="Q17" t="n">
-        <v>430.2499666288413</v>
+        <v>240.0090173519801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_16</t>
+          <t>model_36_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9474689608900141</v>
+        <v>0.9879147608958021</v>
       </c>
       <c r="C18" t="n">
-        <v>0.663039973991167</v>
+        <v>0.7080833274823177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.934652312020759</v>
+        <v>-4.438722687475836</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5527668141003386</v>
+        <v>0.9319444351281404</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8158474916518698</v>
+        <v>0.8382601205830058</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3512753004116698</v>
+        <v>0.08081404953718031</v>
       </c>
       <c r="H18" t="n">
-        <v>2.25325324547932</v>
+        <v>1.952048133278423</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6502764513830595</v>
+        <v>0.3488362072649305</v>
       </c>
       <c r="J18" t="n">
-        <v>1.491183134275667</v>
+        <v>0.1562516716007645</v>
       </c>
       <c r="K18" t="n">
-        <v>1.070729792829364</v>
+        <v>0.2525438799503781</v>
       </c>
       <c r="L18" t="n">
-        <v>4.16619615046918</v>
+        <v>0.5514631088580682</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5926848238411963</v>
+        <v>0.2842781200465141</v>
       </c>
       <c r="N18" t="n">
-        <v>1.011566467326969</v>
+        <v>1.00591930078573</v>
       </c>
       <c r="O18" t="n">
-        <v>0.617916643818838</v>
+        <v>0.2963804281537283</v>
       </c>
       <c r="P18" t="n">
-        <v>268.0923700625729</v>
+        <v>151.0312088963198</v>
       </c>
       <c r="Q18" t="n">
-        <v>430.2028547700435</v>
+        <v>240.0091441116984</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_17</t>
+          <t>model_36_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9463182985195037</v>
+        <v>0.9879163190801434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6617154579157241</v>
+        <v>0.7080823828127663</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9321815508989346</v>
+        <v>-4.439128761839295</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5879131606484853</v>
+        <v>0.931984506506245</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8108306900308052</v>
+        <v>0.8382811048029539</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3589697849815859</v>
+        <v>0.08080362995131511</v>
       </c>
       <c r="H19" t="n">
-        <v>2.262110290574642</v>
+        <v>1.952054450288063</v>
       </c>
       <c r="I19" t="n">
-        <v>0.674863056115359</v>
+        <v>0.3488622526158257</v>
       </c>
       <c r="J19" t="n">
-        <v>1.524935555262569</v>
+        <v>0.1561596700161186</v>
       </c>
       <c r="K19" t="n">
-        <v>1.099899305688964</v>
+        <v>0.25251111477</v>
       </c>
       <c r="L19" t="n">
-        <v>4.206514954225602</v>
+        <v>0.5514356690029274</v>
       </c>
       <c r="M19" t="n">
-        <v>0.599140872401129</v>
+        <v>0.2842597930614091</v>
       </c>
       <c r="N19" t="n">
-        <v>1.011819824179192</v>
+        <v>1.005918537593399</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6246475397318301</v>
+        <v>0.2963613209509252</v>
       </c>
       <c r="P19" t="n">
-        <v>268.0490341168651</v>
+        <v>151.0314667786483</v>
       </c>
       <c r="Q19" t="n">
-        <v>430.1595188243358</v>
+        <v>240.0094019940269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_18</t>
+          <t>model_36_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9452423325693037</v>
+        <v>0.9879192858163746</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6604853733295371</v>
+        <v>0.7080803718644921</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9299063990046804</v>
+        <v>-4.439986763940889</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6198111465071579</v>
+        <v>0.9320632506560546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8062495417994886</v>
+        <v>0.8383214742264833</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3661647742449411</v>
+        <v>0.08078379137247765</v>
       </c>
       <c r="H20" t="n">
-        <v>2.270335871866493</v>
+        <v>1.952067897508432</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6975031486098792</v>
+        <v>0.3489172843238468</v>
       </c>
       <c r="J20" t="n">
-        <v>1.555568447528092</v>
+        <v>0.1559788779668615</v>
       </c>
       <c r="K20" t="n">
-        <v>1.12653577097873</v>
+        <v>0.2524480811453542</v>
       </c>
       <c r="L20" t="n">
-        <v>4.242614165580966</v>
+        <v>0.5513900858796429</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6051155048789786</v>
+        <v>0.2842248957647406</v>
       </c>
       <c r="N20" t="n">
-        <v>1.012056734113181</v>
+        <v>1.005917084498102</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6308765246834558</v>
+        <v>0.2963249380040902</v>
       </c>
       <c r="P20" t="n">
-        <v>268.0093436880733</v>
+        <v>151.0319578708082</v>
       </c>
       <c r="Q20" t="n">
-        <v>430.1198283955439</v>
+        <v>240.0098930861868</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_19</t>
+          <t>model_36_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9442410932183614</v>
+        <v>0.9879249659810903</v>
       </c>
       <c r="C21" t="n">
-        <v>0.659347416821798</v>
+        <v>0.708076113101199</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9278163562054198</v>
+        <v>-4.441738005774207</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.648735225268644</v>
+        <v>0.9322199042252483</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8020723768927603</v>
+        <v>0.8384006786924345</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3728600663949754</v>
+        <v>0.08074580808486882</v>
       </c>
       <c r="H21" t="n">
-        <v>2.277945392273553</v>
+        <v>1.952096375878184</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7183012159443144</v>
+        <v>0.3490296078590301</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5833453796675</v>
+        <v>0.1556192103615037</v>
       </c>
       <c r="K21" t="n">
-        <v>1.150823329998778</v>
+        <v>0.2523244097093866</v>
       </c>
       <c r="L21" t="n">
-        <v>4.274951053290968</v>
+        <v>0.5513016356246521</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6106226874224175</v>
+        <v>0.2841580688364644</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01227719048403</v>
+        <v>1.005914302376609</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6366181593892085</v>
+        <v>0.2962552661151264</v>
       </c>
       <c r="P21" t="n">
-        <v>267.9731041736908</v>
+        <v>151.0328984609771</v>
       </c>
       <c r="Q21" t="n">
-        <v>430.0835888811615</v>
+        <v>240.0108336763557</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_20</t>
+          <t>model_36_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9433135144260385</v>
+        <v>0.9879353104621394</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6582982021915851</v>
+        <v>0.7080664742729352</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9259012803204149</v>
+        <v>-4.445368186065368</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.6749371007569567</v>
+        <v>0.9325254278914306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7982697604091255</v>
+        <v>0.8385507016886808</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3790627900503461</v>
+        <v>0.08067663449246062</v>
       </c>
       <c r="H22" t="n">
-        <v>2.284961495336976</v>
+        <v>1.952160830767166</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7373581832088008</v>
+        <v>0.3492624453095168</v>
       </c>
       <c r="J22" t="n">
-        <v>1.608508072777477</v>
+        <v>0.1549177455563188</v>
       </c>
       <c r="K22" t="n">
-        <v>1.172933127993139</v>
+        <v>0.2520901608049704</v>
       </c>
       <c r="L22" t="n">
-        <v>4.303922613550905</v>
+        <v>0.5511147904257542</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6156807533538352</v>
+        <v>0.2840363260085946</v>
       </c>
       <c r="N22" t="n">
-        <v>1.012481428016285</v>
+        <v>1.005909235692013</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6418915576589667</v>
+        <v>0.2961283404430318</v>
       </c>
       <c r="P22" t="n">
-        <v>267.9401068293318</v>
+        <v>151.0346125620782</v>
       </c>
       <c r="Q22" t="n">
-        <v>430.0505915368025</v>
+        <v>240.0125477774569</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_21</t>
+          <t>model_36_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9424572098334059</v>
+        <v>0.9879514916145571</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6573335416077452</v>
+        <v>0.7080428195598359</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9241499823742088</v>
+        <v>-4.45330385348082</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.6986570855701935</v>
+        <v>0.9331056782370289</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7948122414666271</v>
+        <v>0.8388143374655714</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3847889028042008</v>
+        <v>0.08056843105173631</v>
       </c>
       <c r="H23" t="n">
-        <v>2.291412185102967</v>
+        <v>1.952319009942581</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7547853921734866</v>
+        <v>0.3497714339604177</v>
       </c>
       <c r="J23" t="n">
-        <v>1.631287308511766</v>
+        <v>0.1535855240602901</v>
       </c>
       <c r="K23" t="n">
-        <v>1.193036403122068</v>
+        <v>0.2516785146344052</v>
       </c>
       <c r="L23" t="n">
-        <v>4.329890879899783</v>
+        <v>0.5507619000000684</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6203135520075318</v>
+        <v>0.2838457874475792</v>
       </c>
       <c r="N23" t="n">
-        <v>1.012669972146773</v>
+        <v>1.005901310229605</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6467215841425663</v>
+        <v>0.2959296902610048</v>
       </c>
       <c r="P23" t="n">
-        <v>267.9101207989457</v>
+        <v>151.0372967609801</v>
       </c>
       <c r="Q23" t="n">
-        <v>430.0206055064164</v>
+        <v>240.0152319763587</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_22</t>
+          <t>model_36_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9416691849908987</v>
+        <v>0.9879660521168725</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6564488229450064</v>
+        <v>0.7079782923921762</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9225513043648805</v>
+        <v>-4.471906577808443</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7201141727466212</v>
+        <v>0.934145622558234</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7916722293612299</v>
+        <v>0.8391969569505376</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3900584285545668</v>
+        <v>0.08047106490570891</v>
       </c>
       <c r="H24" t="n">
-        <v>2.297328302874456</v>
+        <v>1.952750503409841</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7706938763901033</v>
+        <v>0.350964600843919</v>
       </c>
       <c r="J24" t="n">
-        <v>1.651893394511041</v>
+        <v>0.1511978715756481</v>
       </c>
       <c r="K24" t="n">
-        <v>1.211293577793497</v>
+        <v>0.2510810849242663</v>
       </c>
       <c r="L24" t="n">
-        <v>4.3531721072015</v>
+        <v>0.5500704978640131</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6245465783707144</v>
+        <v>0.2836742231957442</v>
       </c>
       <c r="N24" t="n">
-        <v>1.012843482203839</v>
+        <v>1.005894178555001</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6511348192016021</v>
+        <v>0.2957508221637822</v>
       </c>
       <c r="P24" t="n">
-        <v>267.8829174685466</v>
+        <v>151.0397152026751</v>
       </c>
       <c r="Q24" t="n">
-        <v>429.9934021760172</v>
+        <v>240.0176504180537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_23</t>
+          <t>model_36_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9409458121258177</v>
+        <v>0.9879236155579609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6556391045596277</v>
+        <v>0.7077797904831002</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9210939167537689</v>
+        <v>-4.520098417655714</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.7395141400559024</v>
+        <v>0.9357424084454402</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7888229836703998</v>
+        <v>0.8393810705368332</v>
       </c>
       <c r="G25" t="n">
-        <v>0.394895626234189</v>
+        <v>0.08075483837055251</v>
       </c>
       <c r="H25" t="n">
-        <v>2.302742893445894</v>
+        <v>1.95407788658985</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7851963763767031</v>
+        <v>0.354055594740731</v>
       </c>
       <c r="J25" t="n">
-        <v>1.67052394727299</v>
+        <v>0.1475317428096279</v>
       </c>
       <c r="K25" t="n">
-        <v>1.227860130568847</v>
+        <v>0.2507936062912771</v>
       </c>
       <c r="L25" t="n">
-        <v>4.374049755857828</v>
+        <v>0.5488418787224969</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6284072137031759</v>
+        <v>0.2841739579387114</v>
       </c>
       <c r="N25" t="n">
-        <v>1.013002756963123</v>
+        <v>1.005914963808346</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6551598097727834</v>
+        <v>0.2962718316493511</v>
       </c>
       <c r="P25" t="n">
-        <v>267.8582675727593</v>
+        <v>151.0326748015456</v>
       </c>
       <c r="Q25" t="n">
-        <v>429.96875228023</v>
+        <v>240.0106100169242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_36_9_24</t>
+          <t>model_36_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9402834208248747</v>
+        <v>0.987550428226554</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6548994976939885</v>
+        <v>0.7071056370278472</v>
       </c>
       <c r="D26" t="n">
-        <v>0.919767647462735</v>
+        <v>-4.661768722509206</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.7570456239785421</v>
+        <v>0.9369996454081594</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7862402541337709</v>
+        <v>0.837395755920725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3993250399136267</v>
+        <v>0.08325034377404</v>
       </c>
       <c r="H26" t="n">
-        <v>2.307688647961999</v>
+        <v>1.958585953849318</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7983941147331971</v>
+        <v>0.363142237812451</v>
       </c>
       <c r="J26" t="n">
-        <v>1.687360121840137</v>
+        <v>0.1446451988893324</v>
       </c>
       <c r="K26" t="n">
-        <v>1.242877061299224</v>
+        <v>0.2538935162076281</v>
       </c>
       <c r="L26" t="n">
-        <v>4.392779498527575</v>
+        <v>0.5469943150009737</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6319217039425269</v>
+        <v>0.2885313566564993</v>
       </c>
       <c r="N26" t="n">
-        <v>1.013148604589018</v>
+        <v>1.006097749440055</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6588239191376214</v>
+        <v>0.3008147338516141</v>
       </c>
       <c r="P26" t="n">
-        <v>267.8359591147068</v>
+        <v>150.9718060414244</v>
       </c>
       <c r="Q26" t="n">
-        <v>429.9464438221775</v>
+        <v>239.9497412568031</v>
       </c>
     </row>
   </sheetData>
